--- a/FileSheet_Ques10.3.xlsx
+++ b/FileSheet_Ques10.3.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Thao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Thao\Desktop\olap_cube_doanthuchanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C509C32F-05E1-45EE-B272-428105C0AE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA566B15-46D5-4E84-B047-96376003A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620"/>
+    <workbookView xWindow="9810" yWindow="2130" windowWidth="19170" windowHeight="11250"/>
   </bookViews>
   <sheets>
-    <sheet name="tmpDAAA" sheetId="1" r:id="rId1"/>
+    <sheet name="tmp15BD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId2"/>
+    <pivotCache cacheId="44" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Thanh Thao\AppData\Local\Temp\tmpDAAA.odc" keepAlive="1" name="DESKTOP-ASETP96\NGOTHANHTHAO Cube_Question10" type="5" refreshedVersion="7" background="1">
+  <connection id="1" odcFile="C:\Users\Thanh Thao\AppData\Local\Temp\tmp15BD.odc" keepAlive="1" name="DESKTOP-ASETP96\NGOTHANHTHAO Cube_Question10" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Cube_Question10;Data Source=DESKTOP-ASETP96\NGOTHANHTHAO;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="QLBI 10 3 DDS" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,36 +32,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
-    <t>Number Of Accidents</t>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Data missing or out of range</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Small town</t>
+  </si>
+  <si>
+    <t>Urban area</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
   <si>
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t>Crossing elsewhere within 50m. of pedestrian crossing</t>
+  </si>
+  <si>
+    <t>Crossing in zig-zag approach lines</t>
+  </si>
+  <si>
+    <t>Crossing in zig-zag exit lines</t>
+  </si>
+  <si>
+    <t>Crossing on pedestrian crossing facility</t>
+  </si>
+  <si>
+    <t>In carriageway, crossing elsewhere</t>
+  </si>
+  <si>
+    <t>In carriageway, not crossing</t>
+  </si>
+  <si>
+    <t>In centre of carriageway - not on refuge, island or central reservation</t>
   </si>
   <si>
     <t>Not a Pedestrian</t>
   </si>
   <si>
-    <t>Crossing on pedestrian crossing facility</t>
-  </si>
-  <si>
-    <t>Crossing elsewhere within 50m. of pedestrian crossing</t>
-  </si>
-  <si>
-    <t>In carriageway, crossing elsewhere</t>
-  </si>
-  <si>
     <t>On footway or verge</t>
   </si>
   <si>
-    <t>In centre of carriageway - not on refuge, island or central reservation</t>
-  </si>
-  <si>
-    <t>In carriageway, not crossing</t>
+    <t>On refuge, central island or central reservation</t>
   </si>
   <si>
     <t>Unknown or other</t>
@@ -73,16 +94,16 @@
     <t>Crossing from driver's offside</t>
   </si>
   <si>
+    <t>Crossing from nearside - masked by parked or stationary vehicle</t>
+  </si>
+  <si>
     <t>Crossing from offside - masked by  parked or stationary vehicle</t>
   </si>
   <si>
-    <t>Crossing from nearside - masked by parked or stationary vehicle</t>
+    <t>In carriageway, stationary - not crossing  (standing or playing) - masked by parked or stationary vehicle</t>
   </si>
   <si>
     <t>In carriageway, stationary - not crossing  (standing or playing)</t>
-  </si>
-  <si>
-    <t>In carriageway, stationary - not crossing  (standing or playing) - masked by parked or stationary vehicle</t>
   </si>
   <si>
     <t>Walking along in carriageway, back to traffic</t>
@@ -91,19 +112,7 @@
     <t>Walking along in carriageway, facing traffic</t>
   </si>
   <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Urban area</t>
-  </si>
-  <si>
-    <t>Small town</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Data missing or out of range</t>
+    <t>Number Of Accidents</t>
   </si>
 </sst>
 </file>
@@ -589,7 +598,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -597,6 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -656,19 +665,29 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Thanh Thao" refreshedDate="44543.189064467595" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Thanh Thao" refreshedDate="44552.020990625002" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
-    <cacheField name="[Measures].[Number Of Accidents]" caption="Number Of Accidents" numFmtId="0" hierarchy="6" level="32767"/>
+    <cacheField name="[Dim Home Area Type].[Description].[Description]" caption="Description" numFmtId="0" level="1">
+      <sharedItems count="4">
+        <s v="[Dim Home Area Type].[Description].&amp;[Data missing or out of range]" c="Data missing or out of range"/>
+        <s v="[Dim Home Area Type].[Description].&amp;[Rural]" c="Rural"/>
+        <s v="[Dim Home Area Type].[Description].&amp;[Small town]" c="Small town"/>
+        <s v="[Dim Home Area Type].[Description].&amp;[Urban area]" c="Urban area"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="[Dim Pedestrian Location].[Description].[Description]" caption="Description" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="8">
+      <sharedItems count="11">
         <s v="[Dim Pedestrian Location].[Description].&amp;[Crossing elsewhere within 50m. of pedestrian crossing]" c="Crossing elsewhere within 50m. of pedestrian crossing"/>
+        <s v="[Dim Pedestrian Location].[Description].&amp;[Crossing in zig-zag approach lines]" c="Crossing in zig-zag approach lines"/>
+        <s v="[Dim Pedestrian Location].[Description].&amp;[Crossing in zig-zag exit lines]" c="Crossing in zig-zag exit lines"/>
         <s v="[Dim Pedestrian Location].[Description].&amp;[Crossing on pedestrian crossing facility]" c="Crossing on pedestrian crossing facility"/>
         <s v="[Dim Pedestrian Location].[Description].&amp;[In carriageway, crossing elsewhere]" c="In carriageway, crossing elsewhere"/>
         <s v="[Dim Pedestrian Location].[Description].&amp;[In carriageway, not crossing]" c="In carriageway, not crossing"/>
         <s v="[Dim Pedestrian Location].[Description].&amp;[In centre of carriageway - not on refuge, island or central reservation]" c="In centre of carriageway - not on refuge, island or central reservation"/>
         <s v="[Dim Pedestrian Location].[Description].&amp;[Not a Pedestrian]" c="Not a Pedestrian"/>
         <s v="[Dim Pedestrian Location].[Description].&amp;[On footway or verge]" c="On footway or verge"/>
+        <s v="[Dim Pedestrian Location].[Description].&amp;[On refuge, central island or central reservation]" c="On refuge, central island or central reservation"/>
         <s v="[Dim Pedestrian Location].[Description].&amp;[Unknown or other]" c="Unknown or other"/>
       </sharedItems>
     </cacheField>
@@ -686,30 +705,23 @@
         <s v="[Dim Pedestrian Movement].[Description].&amp;[Walking along in carriageway, facing traffic]" c="Walking along in carriageway, facing traffic"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Dim Home Area Type].[Description].[Description]" caption="Description" numFmtId="0" level="1">
-      <sharedItems count="4">
-        <s v="[Dim Home Area Type].[Description].&amp;[Data missing or out of range]" c="Data missing or out of range"/>
-        <s v="[Dim Home Area Type].[Description].&amp;[Rural]" c="Rural"/>
-        <s v="[Dim Home Area Type].[Description].&amp;[Small town]" c="Small town"/>
-        <s v="[Dim Home Area Type].[Description].&amp;[Urban area]" c="Urban area"/>
-      </sharedItems>
-    </cacheField>
+    <cacheField name="[Measures].[Number Of Accidents]" caption="Number Of Accidents" numFmtId="0" hierarchy="6" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="8">
     <cacheHierarchy uniqueName="[Dim Home Area Type].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Dim Home Area Type].[Description].[All]" allUniqueName="[Dim Home Area Type].[Description].[All]" dimensionUniqueName="[Dim Home Area Type]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Home Area Type].[SK Home Area Type]" caption="SK Home Area Type" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Home Area Type].[SK Home Area Type].[All]" allUniqueName="[Dim Home Area Type].[SK Home Area Type].[All]" dimensionUniqueName="[Dim Home Area Type]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Home Area Type].[SK Home Area Type]" caption="SK Home Area Type" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Home Area Type].[SK Home Area Type].[All]" allUniqueName="[Dim Home Area Type].[SK Home Area Type].[All]" dimensionUniqueName="[Dim Home Area Type]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Pedestrian Location].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Dim Pedestrian Location].[Description].[All]" allUniqueName="[Dim Pedestrian Location].[Description].[All]" dimensionUniqueName="[Dim Pedestrian Location]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Pedestrian Location].[SK Pedestrian Location]" caption="SK Pedestrian Location" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Pedestrian Location].[SK Pedestrian Location].[All]" allUniqueName="[Dim Pedestrian Location].[SK Pedestrian Location].[All]" dimensionUniqueName="[Dim Pedestrian Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Pedestrian Location].[SK Pedestrian Location]" caption="SK Pedestrian Location" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Pedestrian Location].[SK Pedestrian Location].[All]" allUniqueName="[Dim Pedestrian Location].[SK Pedestrian Location].[All]" dimensionUniqueName="[Dim Pedestrian Location]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Pedestrian Movement].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Dim Pedestrian Movement].[Description].[All]" allUniqueName="[Dim Pedestrian Movement].[Description].[All]" dimensionUniqueName="[Dim Pedestrian Movement]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -719,7 +731,7 @@
     <cacheHierarchy uniqueName="[Dim Pedestrian Movement].[SK Pedestrian Movement]" caption="SK Pedestrian Movement" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Pedestrian Movement].[SK Pedestrian Movement].[All]" allUniqueName="[Dim Pedestrian Movement].[SK Pedestrian Movement].[All]" dimensionUniqueName="[Dim Pedestrian Movement]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Number Of Accidents]" caption="Number Of Accidents" measure="1" displayFolder="" measureGroup="Fact Table" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Fact Table Count]" caption="Fact Table Count" measure="1" displayFolder="" measureGroup="Fact Table" count="0"/>
@@ -748,12 +760,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:F33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:F78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="8">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -762,6 +781,9 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -778,20 +800,13 @@
         <item x="9"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="76">
     <i>
       <x/>
     </i>
@@ -802,7 +817,13 @@
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i>
       <x v="1"/>
@@ -813,6 +834,15 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -835,19 +865,19 @@
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
     </i>
     <i>
       <x v="4"/>
@@ -861,33 +891,153 @@
     <i r="1">
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="6"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
       <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
       <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="3"/>
+    <field x="0"/>
   </colFields>
   <colItems count="5">
     <i>
@@ -907,7 +1057,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="8">
     <pivotHierarchy/>
@@ -1235,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,502 +1393,1366 @@
   <cols>
     <col min="1" max="1" width="91.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>205</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4">
+        <v>915</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" s="4">
+        <v>137</v>
+      </c>
+      <c r="C5" s="4">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" s="4">
+        <v>570</v>
+      </c>
+      <c r="F5" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="4">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
         <v>12</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
+      <c r="E6" s="4">
+        <v>272</v>
+      </c>
+      <c r="F6" s="4">
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>140</v>
+      </c>
+      <c r="F7" s="4">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>112</v>
+      </c>
+      <c r="F8" s="4">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <v>326</v>
+      </c>
+      <c r="C22" s="4">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4">
+        <v>59</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2188</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>1</v>
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
+        <v>179</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1242</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="1">
-        <v>5</v>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4">
+        <v>171</v>
+      </c>
+      <c r="F24" s="4">
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>137</v>
+      </c>
+      <c r="F25" s="4">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="4">
+        <v>39</v>
+      </c>
+      <c r="C26" s="4">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4">
+        <v>211</v>
+      </c>
+      <c r="F26" s="4">
+        <v>267</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1">
-        <v>124</v>
-      </c>
-      <c r="D27" s="1">
-        <v>231</v>
-      </c>
-      <c r="E27" s="1">
-        <v>504</v>
-      </c>
-      <c r="F27" s="1">
-        <v>882</v>
-      </c>
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1152</v>
+      </c>
+      <c r="C28" s="4">
+        <v>279</v>
+      </c>
+      <c r="D28" s="4">
+        <v>340</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5235</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7006</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>10</v>
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4">
+        <v>574</v>
+      </c>
+      <c r="C29" s="4">
+        <v>157</v>
+      </c>
+      <c r="D29" s="4">
+        <v>172</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3054</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3957</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B30" s="4">
+        <v>273</v>
+      </c>
+      <c r="C30" s="4">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1711</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2126</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>1</v>
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4">
+        <v>171</v>
+      </c>
+      <c r="C31" s="4">
+        <v>49</v>
+      </c>
+      <c r="D31" s="4">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1019</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1303</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1">
-        <v>7</v>
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4">
+        <v>150</v>
+      </c>
+      <c r="C33" s="4">
+        <v>59</v>
+      </c>
+      <c r="D33" s="4">
+        <v>84</v>
+      </c>
+      <c r="E33" s="4">
+        <v>849</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="4">
+        <v>163</v>
+      </c>
+      <c r="C36" s="4">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4">
+        <v>88</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1050</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="4">
+        <v>18</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4">
+        <v>142</v>
+      </c>
+      <c r="F37" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4">
+        <v>197</v>
+      </c>
+      <c r="C38" s="4">
+        <v>90</v>
+      </c>
+      <c r="D38" s="4">
+        <v>75</v>
+      </c>
+      <c r="E38" s="4">
+        <v>834</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="4">
+        <v>66</v>
+      </c>
+      <c r="C39" s="4">
+        <v>87</v>
+      </c>
+      <c r="D39" s="4">
+        <v>60</v>
+      </c>
+      <c r="E39" s="4">
+        <v>254</v>
+      </c>
+      <c r="F39" s="4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>58</v>
+      </c>
+      <c r="D40" s="4">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4">
+        <v>149</v>
+      </c>
+      <c r="F40" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="4">
+        <v>34</v>
+      </c>
+      <c r="C42" s="4">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4">
+        <v>19</v>
+      </c>
+      <c r="E42" s="4">
+        <v>199</v>
+      </c>
+      <c r="F42" s="4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="4">
+        <v>29</v>
+      </c>
+      <c r="C43" s="4">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4">
+        <v>14</v>
+      </c>
+      <c r="E43" s="4">
+        <v>212</v>
+      </c>
+      <c r="F43" s="4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4">
+        <v>52</v>
+      </c>
+      <c r="F44" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4">
+        <v>37</v>
+      </c>
+      <c r="F45" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="4">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4">
+        <v>73</v>
+      </c>
+      <c r="F46" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="4">
+        <v>21</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>6</v>
+      </c>
+      <c r="E48" s="4">
+        <v>53</v>
+      </c>
+      <c r="F48" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>28</v>
+      </c>
+      <c r="F49" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4">
+        <v>27</v>
+      </c>
+      <c r="F50" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="4">
+        <v>21556</v>
+      </c>
+      <c r="C52" s="4">
+        <v>23882</v>
+      </c>
+      <c r="D52" s="4">
+        <v>19415</v>
+      </c>
+      <c r="E52" s="4">
+        <v>162056</v>
+      </c>
+      <c r="F52" s="4">
+        <v>226909</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="4">
+        <v>8</v>
+      </c>
+      <c r="C56" s="4">
+        <v>15</v>
+      </c>
+      <c r="D56" s="4">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4">
+        <v>74</v>
+      </c>
+      <c r="F56" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="1">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1">
-        <v>134</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="4">
+        <v>360</v>
+      </c>
+      <c r="C58" s="4">
+        <v>182</v>
+      </c>
+      <c r="D58" s="4">
+        <v>247</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2229</v>
+      </c>
+      <c r="F58" s="4">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="4">
+        <v>15</v>
+      </c>
+      <c r="C59" s="4">
+        <v>33</v>
+      </c>
+      <c r="D59" s="4">
+        <v>22</v>
+      </c>
+      <c r="E59" s="4">
+        <v>123</v>
+      </c>
+      <c r="F59" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="4">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4">
+        <v>55</v>
+      </c>
+      <c r="F60" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5</v>
+      </c>
+      <c r="E62" s="4">
+        <v>18</v>
+      </c>
+      <c r="F62" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="4">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4">
+        <v>57</v>
+      </c>
+      <c r="F63" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
+        <v>13</v>
+      </c>
+      <c r="F65" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4">
+        <v>24</v>
+      </c>
+      <c r="F66" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4">
+        <v>39</v>
+      </c>
+      <c r="C69" s="4">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4">
+        <v>15</v>
+      </c>
+      <c r="E69" s="4">
+        <v>156</v>
+      </c>
+      <c r="F69" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="4">
+        <v>11</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3</v>
+      </c>
+      <c r="D70" s="4">
+        <v>6</v>
+      </c>
+      <c r="E70" s="4">
+        <v>94</v>
+      </c>
+      <c r="F70" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="4">
+        <v>10</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>49</v>
+      </c>
+      <c r="F71" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="4">
+        <v>7</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4">
+        <v>18</v>
+      </c>
+      <c r="F72" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="4">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4">
+        <v>8</v>
+      </c>
+      <c r="D73" s="4">
+        <v>5</v>
+      </c>
+      <c r="E73" s="4">
+        <v>51</v>
+      </c>
+      <c r="F73" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>14</v>
+      </c>
+      <c r="F74" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4">
         <v>262</v>
       </c>
-      <c r="E33" s="1">
-        <v>576</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1000</v>
+      <c r="C75" s="4">
+        <v>80</v>
+      </c>
+      <c r="D75" s="4">
+        <v>74</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1084</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>19</v>
+      </c>
+      <c r="F76" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>12</v>
+      </c>
+      <c r="F77" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4">
+        <v>26266</v>
+      </c>
+      <c r="C78" s="4">
+        <v>25375</v>
+      </c>
+      <c r="D78" s="4">
+        <v>21116</v>
+      </c>
+      <c r="E78" s="4">
+        <v>186592</v>
+      </c>
+      <c r="F78" s="4">
+        <v>259349</v>
       </c>
     </row>
   </sheetData>
